--- a/src/winPool.xlsx
+++ b/src/winPool.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="49" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'120'!$A$1:$A$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'49'!$B$1:$B$173</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -6973,8 +6973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9895,7 +9895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
